--- a/Assignment2/Compare Result/50_0_compare.xlsx
+++ b/Assignment2/Compare Result/50_0_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\EvolutionaryAlgorithm\ECAssignment\Assignment2\Compare Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703B05A9-F9A9-4592-ABFB-792C3319D503}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C97481B-FE87-48E8-B38D-224F841D3A20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>AVG</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>STD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neighbor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AH69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" workbookViewId="0">
-      <selection activeCell="AH25" sqref="AH25:AH45"/>
+    <sheetView tabSelected="1" topLeftCell="J40" workbookViewId="0">
+      <selection activeCell="AG49" sqref="AG49:AG69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -576,15 +580,15 @@
         <v>18471.599999999999</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF45" si="0">AVERAGE(A3:AD3)</f>
+        <f t="shared" ref="AF3:AF66" si="0">AVERAGE(A3:AD3)</f>
         <v>18314.886666666665</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG45" si="1">MIN(A3:AD3)</f>
+        <f t="shared" ref="AG3:AG66" si="1">MIN(A3:AD3)</f>
         <v>16061.3</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH45" si="2">_xlfn.STDEV.P(A3:AD3)</f>
+        <f t="shared" ref="AH3:AH66" si="2">_xlfn.STDEV.P(A3:AD3)</f>
         <v>1555.0169917042351</v>
       </c>
     </row>
@@ -4773,6 +4777,2235 @@
       </c>
       <c r="AH45">
         <f t="shared" si="2"/>
+        <v>4.5474735088646412E-12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AF46" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH46" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF47" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH47" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AF48" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH48" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>21089</v>
+      </c>
+      <c r="B49">
+        <v>18567.900000000001</v>
+      </c>
+      <c r="C49">
+        <v>21279.1</v>
+      </c>
+      <c r="D49">
+        <v>20060.900000000001</v>
+      </c>
+      <c r="E49">
+        <v>19516.8</v>
+      </c>
+      <c r="F49">
+        <v>19182.7</v>
+      </c>
+      <c r="G49">
+        <v>18396.599999999999</v>
+      </c>
+      <c r="H49">
+        <v>20785.099999999999</v>
+      </c>
+      <c r="I49">
+        <v>16551.2</v>
+      </c>
+      <c r="J49">
+        <v>18604.7</v>
+      </c>
+      <c r="K49">
+        <v>20319.8</v>
+      </c>
+      <c r="L49">
+        <v>22626.6</v>
+      </c>
+      <c r="M49">
+        <v>17609.400000000001</v>
+      </c>
+      <c r="N49">
+        <v>20093.7</v>
+      </c>
+      <c r="O49">
+        <v>18375.7</v>
+      </c>
+      <c r="P49">
+        <v>18734.7</v>
+      </c>
+      <c r="Q49">
+        <v>21698.7</v>
+      </c>
+      <c r="R49">
+        <v>16493.5</v>
+      </c>
+      <c r="S49">
+        <v>21911.7</v>
+      </c>
+      <c r="T49">
+        <v>23026.400000000001</v>
+      </c>
+      <c r="U49">
+        <v>18766.3</v>
+      </c>
+      <c r="V49">
+        <v>19999.7</v>
+      </c>
+      <c r="W49">
+        <v>20730.5</v>
+      </c>
+      <c r="X49">
+        <v>19919</v>
+      </c>
+      <c r="Y49">
+        <v>22314.7</v>
+      </c>
+      <c r="Z49">
+        <v>20665.2</v>
+      </c>
+      <c r="AA49">
+        <v>19869</v>
+      </c>
+      <c r="AB49">
+        <v>19097.599999999999</v>
+      </c>
+      <c r="AC49">
+        <v>19622.8</v>
+      </c>
+      <c r="AD49">
+        <v>18231.3</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="0"/>
+        <v>19804.676666666674</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="1"/>
+        <v>16493.5</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="2"/>
+        <v>1618.4943619886008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>19728.2</v>
+      </c>
+      <c r="B50">
+        <v>16828.099999999999</v>
+      </c>
+      <c r="C50">
+        <v>19338.900000000001</v>
+      </c>
+      <c r="D50">
+        <v>18744</v>
+      </c>
+      <c r="E50">
+        <v>18130.099999999999</v>
+      </c>
+      <c r="F50">
+        <v>17786.3</v>
+      </c>
+      <c r="G50">
+        <v>14887</v>
+      </c>
+      <c r="H50">
+        <v>19435</v>
+      </c>
+      <c r="I50">
+        <v>15114.7</v>
+      </c>
+      <c r="J50">
+        <v>17181.8</v>
+      </c>
+      <c r="K50">
+        <v>18955.900000000001</v>
+      </c>
+      <c r="L50">
+        <v>21231.3</v>
+      </c>
+      <c r="M50">
+        <v>16320.1</v>
+      </c>
+      <c r="N50">
+        <v>18581.599999999999</v>
+      </c>
+      <c r="O50">
+        <v>16966.400000000001</v>
+      </c>
+      <c r="P50">
+        <v>15698.5</v>
+      </c>
+      <c r="Q50">
+        <v>19314.3</v>
+      </c>
+      <c r="R50">
+        <v>14498.5</v>
+      </c>
+      <c r="S50">
+        <v>18860.2</v>
+      </c>
+      <c r="T50">
+        <v>19904.2</v>
+      </c>
+      <c r="U50">
+        <v>17527.3</v>
+      </c>
+      <c r="V50">
+        <v>18190.400000000001</v>
+      </c>
+      <c r="W50">
+        <v>18608.8</v>
+      </c>
+      <c r="X50">
+        <v>18660.900000000001</v>
+      </c>
+      <c r="Y50">
+        <v>19707.7</v>
+      </c>
+      <c r="Z50">
+        <v>18135.7</v>
+      </c>
+      <c r="AA50">
+        <v>18458.5</v>
+      </c>
+      <c r="AB50">
+        <v>17749.2</v>
+      </c>
+      <c r="AC50">
+        <v>18283.599999999999</v>
+      </c>
+      <c r="AD50">
+        <v>16703.099999999999</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="0"/>
+        <v>17984.343333333334</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="1"/>
+        <v>14498.5</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="2"/>
+        <v>1557.5358828789647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>14955.3</v>
+      </c>
+      <c r="B51">
+        <v>14760.5</v>
+      </c>
+      <c r="C51">
+        <v>16726.8</v>
+      </c>
+      <c r="D51">
+        <v>16341.9</v>
+      </c>
+      <c r="E51">
+        <v>15092.5</v>
+      </c>
+      <c r="F51">
+        <v>13464.2</v>
+      </c>
+      <c r="G51">
+        <v>13571.6</v>
+      </c>
+      <c r="H51">
+        <v>17223.599999999999</v>
+      </c>
+      <c r="I51">
+        <v>12666.6</v>
+      </c>
+      <c r="J51">
+        <v>12086.7</v>
+      </c>
+      <c r="K51">
+        <v>16261.6</v>
+      </c>
+      <c r="L51">
+        <v>17988.599999999999</v>
+      </c>
+      <c r="M51">
+        <v>14611</v>
+      </c>
+      <c r="N51">
+        <v>13799.2</v>
+      </c>
+      <c r="O51">
+        <v>15349.4</v>
+      </c>
+      <c r="P51">
+        <v>13254.4</v>
+      </c>
+      <c r="Q51">
+        <v>16073.8</v>
+      </c>
+      <c r="R51">
+        <v>13151.9</v>
+      </c>
+      <c r="S51">
+        <v>16070.1</v>
+      </c>
+      <c r="T51">
+        <v>15442.3</v>
+      </c>
+      <c r="U51">
+        <v>15116.6</v>
+      </c>
+      <c r="V51">
+        <v>16618.7</v>
+      </c>
+      <c r="W51">
+        <v>16204.8</v>
+      </c>
+      <c r="X51">
+        <v>16790.2</v>
+      </c>
+      <c r="Y51">
+        <v>16154.3</v>
+      </c>
+      <c r="Z51">
+        <v>13638.2</v>
+      </c>
+      <c r="AA51">
+        <v>16207</v>
+      </c>
+      <c r="AB51">
+        <v>16096.9</v>
+      </c>
+      <c r="AC51">
+        <v>15731.4</v>
+      </c>
+      <c r="AD51">
+        <v>15164.1</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="0"/>
+        <v>15220.473333333333</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="1"/>
+        <v>12086.7</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="2"/>
+        <v>1432.5002152258899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>12703.8</v>
+      </c>
+      <c r="B52">
+        <v>13064.6</v>
+      </c>
+      <c r="C52">
+        <v>13992.5</v>
+      </c>
+      <c r="D52">
+        <v>13409.3</v>
+      </c>
+      <c r="E52">
+        <v>13807.9</v>
+      </c>
+      <c r="F52">
+        <v>12117.2</v>
+      </c>
+      <c r="G52">
+        <v>11660.3</v>
+      </c>
+      <c r="H52">
+        <v>15935.8</v>
+      </c>
+      <c r="I52">
+        <v>11569.8</v>
+      </c>
+      <c r="J52">
+        <v>10905.3</v>
+      </c>
+      <c r="K52">
+        <v>13183.8</v>
+      </c>
+      <c r="L52">
+        <v>15096.8</v>
+      </c>
+      <c r="M52">
+        <v>13403.7</v>
+      </c>
+      <c r="N52">
+        <v>11392.6</v>
+      </c>
+      <c r="O52">
+        <v>13044.5</v>
+      </c>
+      <c r="P52">
+        <v>11877.9</v>
+      </c>
+      <c r="Q52">
+        <v>14709</v>
+      </c>
+      <c r="R52">
+        <v>11914</v>
+      </c>
+      <c r="S52">
+        <v>14761.8</v>
+      </c>
+      <c r="T52">
+        <v>14193.4</v>
+      </c>
+      <c r="U52">
+        <v>11894.3</v>
+      </c>
+      <c r="V52">
+        <v>14771.5</v>
+      </c>
+      <c r="W52">
+        <v>14211.8</v>
+      </c>
+      <c r="X52">
+        <v>14984.4</v>
+      </c>
+      <c r="Y52">
+        <v>14537.9</v>
+      </c>
+      <c r="Z52">
+        <v>12245.9</v>
+      </c>
+      <c r="AA52">
+        <v>13015.6</v>
+      </c>
+      <c r="AB52">
+        <v>13847.9</v>
+      </c>
+      <c r="AC52">
+        <v>11027.2</v>
+      </c>
+      <c r="AD52">
+        <v>13615.6</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="0"/>
+        <v>13229.87</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="1"/>
+        <v>10905.3</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="2"/>
+        <v>1325.3379576923012</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>10981.7</v>
+      </c>
+      <c r="B53">
+        <v>11861.5</v>
+      </c>
+      <c r="C53">
+        <v>12757</v>
+      </c>
+      <c r="D53">
+        <v>12176.4</v>
+      </c>
+      <c r="E53">
+        <v>11205.1</v>
+      </c>
+      <c r="F53">
+        <v>10874.2</v>
+      </c>
+      <c r="G53">
+        <v>10776.3</v>
+      </c>
+      <c r="H53">
+        <v>13456.3</v>
+      </c>
+      <c r="I53">
+        <v>9797.2199999999993</v>
+      </c>
+      <c r="J53">
+        <v>10223.700000000001</v>
+      </c>
+      <c r="K53">
+        <v>11653.6</v>
+      </c>
+      <c r="L53">
+        <v>13986</v>
+      </c>
+      <c r="M53">
+        <v>11538.8</v>
+      </c>
+      <c r="N53">
+        <v>9783.3799999999992</v>
+      </c>
+      <c r="O53">
+        <v>11366.9</v>
+      </c>
+      <c r="P53">
+        <v>10692.6</v>
+      </c>
+      <c r="Q53">
+        <v>11968.2</v>
+      </c>
+      <c r="R53">
+        <v>9413.85</v>
+      </c>
+      <c r="S53">
+        <v>13230.5</v>
+      </c>
+      <c r="T53">
+        <v>12994</v>
+      </c>
+      <c r="U53">
+        <v>10819.7</v>
+      </c>
+      <c r="V53">
+        <v>13005</v>
+      </c>
+      <c r="W53">
+        <v>10918.8</v>
+      </c>
+      <c r="X53">
+        <v>13845.3</v>
+      </c>
+      <c r="Y53">
+        <v>13194</v>
+      </c>
+      <c r="Z53">
+        <v>10991.6</v>
+      </c>
+      <c r="AA53">
+        <v>10781.6</v>
+      </c>
+      <c r="AB53">
+        <v>12028.6</v>
+      </c>
+      <c r="AC53">
+        <v>9973.4500000000007</v>
+      </c>
+      <c r="AD53">
+        <v>12428.4</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="0"/>
+        <v>11624.123333333333</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="1"/>
+        <v>9413.85</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="2"/>
+        <v>1246.7836080821053</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>9582.08</v>
+      </c>
+      <c r="B54">
+        <v>10073.200000000001</v>
+      </c>
+      <c r="C54">
+        <v>11574.8</v>
+      </c>
+      <c r="D54">
+        <v>11159</v>
+      </c>
+      <c r="E54">
+        <v>10286.5</v>
+      </c>
+      <c r="F54">
+        <v>9883.11</v>
+      </c>
+      <c r="G54">
+        <v>9359.7900000000009</v>
+      </c>
+      <c r="H54">
+        <v>12252.1</v>
+      </c>
+      <c r="I54">
+        <v>8356.18</v>
+      </c>
+      <c r="J54">
+        <v>9582.89</v>
+      </c>
+      <c r="K54">
+        <v>10345.200000000001</v>
+      </c>
+      <c r="L54">
+        <v>11908.1</v>
+      </c>
+      <c r="M54">
+        <v>8579.17</v>
+      </c>
+      <c r="N54">
+        <v>9157.82</v>
+      </c>
+      <c r="O54">
+        <v>9850.73</v>
+      </c>
+      <c r="P54">
+        <v>9675.0499999999993</v>
+      </c>
+      <c r="Q54">
+        <v>9352.02</v>
+      </c>
+      <c r="R54">
+        <v>8895.35</v>
+      </c>
+      <c r="S54">
+        <v>11945.2</v>
+      </c>
+      <c r="T54">
+        <v>11360.4</v>
+      </c>
+      <c r="U54">
+        <v>9200.74</v>
+      </c>
+      <c r="V54">
+        <v>11818.1</v>
+      </c>
+      <c r="W54">
+        <v>9971.07</v>
+      </c>
+      <c r="X54">
+        <v>11292.1</v>
+      </c>
+      <c r="Y54">
+        <v>11428.4</v>
+      </c>
+      <c r="Z54">
+        <v>10039</v>
+      </c>
+      <c r="AA54">
+        <v>9702.1</v>
+      </c>
+      <c r="AB54">
+        <v>9922.98</v>
+      </c>
+      <c r="AC54">
+        <v>9330.91</v>
+      </c>
+      <c r="AD54">
+        <v>11314.5</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="0"/>
+        <v>10239.953</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="1"/>
+        <v>8356.18</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="2"/>
+        <v>1073.1102728584569</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>8769.59</v>
+      </c>
+      <c r="B55">
+        <v>9389.06</v>
+      </c>
+      <c r="C55">
+        <v>9933.59</v>
+      </c>
+      <c r="D55">
+        <v>10206.6</v>
+      </c>
+      <c r="E55">
+        <v>9444.3700000000008</v>
+      </c>
+      <c r="F55">
+        <v>9220.8799999999992</v>
+      </c>
+      <c r="G55">
+        <v>8704.67</v>
+      </c>
+      <c r="H55">
+        <v>11093.3</v>
+      </c>
+      <c r="I55">
+        <v>8050.98</v>
+      </c>
+      <c r="J55">
+        <v>8078.69</v>
+      </c>
+      <c r="K55">
+        <v>9505.58</v>
+      </c>
+      <c r="L55">
+        <v>10676.9</v>
+      </c>
+      <c r="M55">
+        <v>7947.2</v>
+      </c>
+      <c r="N55">
+        <v>8219.76</v>
+      </c>
+      <c r="O55">
+        <v>8138.89</v>
+      </c>
+      <c r="P55">
+        <v>8688.94</v>
+      </c>
+      <c r="Q55">
+        <v>8130.36</v>
+      </c>
+      <c r="R55">
+        <v>8456.2199999999993</v>
+      </c>
+      <c r="S55">
+        <v>10071.6</v>
+      </c>
+      <c r="T55">
+        <v>9062.08</v>
+      </c>
+      <c r="U55">
+        <v>8170.42</v>
+      </c>
+      <c r="V55">
+        <v>10818.3</v>
+      </c>
+      <c r="W55">
+        <v>9048.27</v>
+      </c>
+      <c r="X55">
+        <v>10305</v>
+      </c>
+      <c r="Y55">
+        <v>9393.57</v>
+      </c>
+      <c r="Z55">
+        <v>9138.52</v>
+      </c>
+      <c r="AA55">
+        <v>8593.56</v>
+      </c>
+      <c r="AB55">
+        <v>8994.8799999999992</v>
+      </c>
+      <c r="AC55">
+        <v>8373.36</v>
+      </c>
+      <c r="AD55">
+        <v>9429.81</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="0"/>
+        <v>9135.1649999999991</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="1"/>
+        <v>7947.2</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="2"/>
+        <v>873.5435524755859</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>7943.05</v>
+      </c>
+      <c r="B56">
+        <v>8631.15</v>
+      </c>
+      <c r="C56">
+        <v>9185.14</v>
+      </c>
+      <c r="D56">
+        <v>9429.16</v>
+      </c>
+      <c r="E56">
+        <v>8920.25</v>
+      </c>
+      <c r="F56">
+        <v>8193.75</v>
+      </c>
+      <c r="G56">
+        <v>8135.42</v>
+      </c>
+      <c r="H56">
+        <v>10142.700000000001</v>
+      </c>
+      <c r="I56">
+        <v>7539.39</v>
+      </c>
+      <c r="J56">
+        <v>7645.94</v>
+      </c>
+      <c r="K56">
+        <v>8632.39</v>
+      </c>
+      <c r="L56">
+        <v>9684.73</v>
+      </c>
+      <c r="M56">
+        <v>7491.95</v>
+      </c>
+      <c r="N56">
+        <v>7760.32</v>
+      </c>
+      <c r="O56">
+        <v>7630.62</v>
+      </c>
+      <c r="P56">
+        <v>7899.87</v>
+      </c>
+      <c r="Q56">
+        <v>7584.27</v>
+      </c>
+      <c r="R56">
+        <v>8047.58</v>
+      </c>
+      <c r="S56">
+        <v>9012.4599999999991</v>
+      </c>
+      <c r="T56">
+        <v>8682.19</v>
+      </c>
+      <c r="U56">
+        <v>7765.29</v>
+      </c>
+      <c r="V56">
+        <v>9844.24</v>
+      </c>
+      <c r="W56">
+        <v>8405.74</v>
+      </c>
+      <c r="X56">
+        <v>9378.8700000000008</v>
+      </c>
+      <c r="Y56">
+        <v>8661.27</v>
+      </c>
+      <c r="Z56">
+        <v>8549.39</v>
+      </c>
+      <c r="AA56">
+        <v>8050.97</v>
+      </c>
+      <c r="AB56">
+        <v>8181.68</v>
+      </c>
+      <c r="AC56">
+        <v>7904.17</v>
+      </c>
+      <c r="AD56">
+        <v>8697.34</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="0"/>
+        <v>8454.3763333333318</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="1"/>
+        <v>7491.95</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="2"/>
+        <v>722.13908991958658</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>7461.99</v>
+      </c>
+      <c r="B57">
+        <v>8036.85</v>
+      </c>
+      <c r="C57">
+        <v>8581.89</v>
+      </c>
+      <c r="D57">
+        <v>8798.1</v>
+      </c>
+      <c r="E57">
+        <v>7704.1</v>
+      </c>
+      <c r="F57">
+        <v>7801.63</v>
+      </c>
+      <c r="G57">
+        <v>7639.84</v>
+      </c>
+      <c r="H57">
+        <v>9168.01</v>
+      </c>
+      <c r="I57">
+        <v>7215.8</v>
+      </c>
+      <c r="J57">
+        <v>7193.13</v>
+      </c>
+      <c r="K57">
+        <v>8212.17</v>
+      </c>
+      <c r="L57">
+        <v>9039.57</v>
+      </c>
+      <c r="M57">
+        <v>7134.98</v>
+      </c>
+      <c r="N57">
+        <v>7468.7</v>
+      </c>
+      <c r="O57">
+        <v>7630.62</v>
+      </c>
+      <c r="P57">
+        <v>7404.95</v>
+      </c>
+      <c r="Q57">
+        <v>7306.44</v>
+      </c>
+      <c r="R57">
+        <v>7766</v>
+      </c>
+      <c r="S57">
+        <v>8504.8700000000008</v>
+      </c>
+      <c r="T57">
+        <v>8392.19</v>
+      </c>
+      <c r="U57">
+        <v>7623.91</v>
+      </c>
+      <c r="V57">
+        <v>8911.84</v>
+      </c>
+      <c r="W57">
+        <v>7676.55</v>
+      </c>
+      <c r="X57">
+        <v>8453.7099999999991</v>
+      </c>
+      <c r="Y57">
+        <v>8388.7900000000009</v>
+      </c>
+      <c r="Z57">
+        <v>8054.7</v>
+      </c>
+      <c r="AA57">
+        <v>7663.79</v>
+      </c>
+      <c r="AB57">
+        <v>7631.71</v>
+      </c>
+      <c r="AC57">
+        <v>7603.28</v>
+      </c>
+      <c r="AD57">
+        <v>8138.26</v>
+      </c>
+      <c r="AF57">
+        <f t="shared" si="0"/>
+        <v>7953.6123333333326</v>
+      </c>
+      <c r="AG57">
+        <f t="shared" si="1"/>
+        <v>7134.98</v>
+      </c>
+      <c r="AH57">
+        <f t="shared" si="2"/>
+        <v>563.99372667718774</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>7341.76</v>
+      </c>
+      <c r="B58">
+        <v>7637.58</v>
+      </c>
+      <c r="C58">
+        <v>8031.19</v>
+      </c>
+      <c r="D58">
+        <v>8294.7000000000007</v>
+      </c>
+      <c r="E58">
+        <v>7375.96</v>
+      </c>
+      <c r="F58">
+        <v>7450.47</v>
+      </c>
+      <c r="G58">
+        <v>7287.3</v>
+      </c>
+      <c r="H58">
+        <v>8239.11</v>
+      </c>
+      <c r="I58">
+        <v>6950.86</v>
+      </c>
+      <c r="J58">
+        <v>7056.34</v>
+      </c>
+      <c r="K58">
+        <v>7843.94</v>
+      </c>
+      <c r="L58">
+        <v>8409.18</v>
+      </c>
+      <c r="M58">
+        <v>6956.72</v>
+      </c>
+      <c r="N58">
+        <v>7322.79</v>
+      </c>
+      <c r="O58">
+        <v>7152.85</v>
+      </c>
+      <c r="P58">
+        <v>7109.78</v>
+      </c>
+      <c r="Q58">
+        <v>6814.14</v>
+      </c>
+      <c r="R58">
+        <v>7513.17</v>
+      </c>
+      <c r="S58">
+        <v>7801.8</v>
+      </c>
+      <c r="T58">
+        <v>7962.61</v>
+      </c>
+      <c r="U58">
+        <v>7346.52</v>
+      </c>
+      <c r="V58">
+        <v>8487.6</v>
+      </c>
+      <c r="W58">
+        <v>7194.53</v>
+      </c>
+      <c r="X58">
+        <v>7939.92</v>
+      </c>
+      <c r="Y58">
+        <v>8008.24</v>
+      </c>
+      <c r="Z58">
+        <v>7596.84</v>
+      </c>
+      <c r="AA58">
+        <v>7480.57</v>
+      </c>
+      <c r="AB58">
+        <v>7222.72</v>
+      </c>
+      <c r="AC58">
+        <v>7121.96</v>
+      </c>
+      <c r="AD58">
+        <v>7643.28</v>
+      </c>
+      <c r="AF58">
+        <f t="shared" si="0"/>
+        <v>7553.1476666666667</v>
+      </c>
+      <c r="AG58">
+        <f t="shared" si="1"/>
+        <v>6814.14</v>
+      </c>
+      <c r="AH58">
+        <f t="shared" si="2"/>
+        <v>450.73078217256131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>6857.8</v>
+      </c>
+      <c r="B59">
+        <v>7412.31</v>
+      </c>
+      <c r="C59">
+        <v>7607.87</v>
+      </c>
+      <c r="D59">
+        <v>7829.03</v>
+      </c>
+      <c r="E59">
+        <v>7192.01</v>
+      </c>
+      <c r="F59">
+        <v>7244.01</v>
+      </c>
+      <c r="G59">
+        <v>7116.5</v>
+      </c>
+      <c r="H59">
+        <v>7741.95</v>
+      </c>
+      <c r="I59">
+        <v>6857.8</v>
+      </c>
+      <c r="J59">
+        <v>6914.27</v>
+      </c>
+      <c r="K59">
+        <v>7374.56</v>
+      </c>
+      <c r="L59">
+        <v>7900.37</v>
+      </c>
+      <c r="M59">
+        <v>6814.14</v>
+      </c>
+      <c r="N59">
+        <v>7126.86</v>
+      </c>
+      <c r="O59">
+        <v>7151.76</v>
+      </c>
+      <c r="P59">
+        <v>7020.83</v>
+      </c>
+      <c r="Q59">
+        <v>6814.14</v>
+      </c>
+      <c r="R59">
+        <v>7351.94</v>
+      </c>
+      <c r="S59">
+        <v>7537.85</v>
+      </c>
+      <c r="T59">
+        <v>7652.05</v>
+      </c>
+      <c r="U59">
+        <v>7177.06</v>
+      </c>
+      <c r="V59">
+        <v>8085.51</v>
+      </c>
+      <c r="W59">
+        <v>6814.14</v>
+      </c>
+      <c r="X59">
+        <v>7292.01</v>
+      </c>
+      <c r="Y59">
+        <v>7756.91</v>
+      </c>
+      <c r="Z59">
+        <v>7253.76</v>
+      </c>
+      <c r="AA59">
+        <v>7188.28</v>
+      </c>
+      <c r="AB59">
+        <v>7222.72</v>
+      </c>
+      <c r="AC59">
+        <v>6857.8</v>
+      </c>
+      <c r="AD59">
+        <v>7396.51</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="0"/>
+        <v>7285.4250000000011</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="1"/>
+        <v>6814.14</v>
+      </c>
+      <c r="AH59">
+        <f t="shared" si="2"/>
+        <v>347.28730042766216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>6857.8</v>
+      </c>
+      <c r="B60">
+        <v>7256.41</v>
+      </c>
+      <c r="C60">
+        <v>7409.51</v>
+      </c>
+      <c r="D60">
+        <v>7689.28</v>
+      </c>
+      <c r="E60">
+        <v>7190.92</v>
+      </c>
+      <c r="F60">
+        <v>7065.58</v>
+      </c>
+      <c r="G60">
+        <v>7014.78</v>
+      </c>
+      <c r="H60">
+        <v>7361.56</v>
+      </c>
+      <c r="I60">
+        <v>6857.8</v>
+      </c>
+      <c r="J60">
+        <v>6814.14</v>
+      </c>
+      <c r="K60">
+        <v>7157.2</v>
+      </c>
+      <c r="L60">
+        <v>7600.43</v>
+      </c>
+      <c r="M60">
+        <v>6814.14</v>
+      </c>
+      <c r="N60">
+        <v>6953.89</v>
+      </c>
+      <c r="O60">
+        <v>6974.73</v>
+      </c>
+      <c r="P60">
+        <v>6950.86</v>
+      </c>
+      <c r="Q60">
+        <v>6814.14</v>
+      </c>
+      <c r="R60">
+        <v>7178.18</v>
+      </c>
+      <c r="S60">
+        <v>7464.33</v>
+      </c>
+      <c r="T60">
+        <v>7380.54</v>
+      </c>
+      <c r="U60">
+        <v>7074.46</v>
+      </c>
+      <c r="V60">
+        <v>7817.67</v>
+      </c>
+      <c r="W60">
+        <v>6814.14</v>
+      </c>
+      <c r="X60">
+        <v>7241.11</v>
+      </c>
+      <c r="Y60">
+        <v>7465.1</v>
+      </c>
+      <c r="Z60">
+        <v>7062.94</v>
+      </c>
+      <c r="AA60">
+        <v>7098.23</v>
+      </c>
+      <c r="AB60">
+        <v>6857.8</v>
+      </c>
+      <c r="AC60">
+        <v>6814.14</v>
+      </c>
+      <c r="AD60">
+        <v>7087.19</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" si="0"/>
+        <v>7137.9666666666681</v>
+      </c>
+      <c r="AG60">
+        <f t="shared" si="1"/>
+        <v>6814.14</v>
+      </c>
+      <c r="AH60">
+        <f t="shared" si="2"/>
+        <v>276.58312515810184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>6857.8</v>
+      </c>
+      <c r="B61">
+        <v>7126.86</v>
+      </c>
+      <c r="C61">
+        <v>7223.91</v>
+      </c>
+      <c r="D61">
+        <v>7227.61</v>
+      </c>
+      <c r="E61">
+        <v>7190.92</v>
+      </c>
+      <c r="F61">
+        <v>7065.58</v>
+      </c>
+      <c r="G61">
+        <v>6974.73</v>
+      </c>
+      <c r="H61">
+        <v>7188.28</v>
+      </c>
+      <c r="I61">
+        <v>6857.8</v>
+      </c>
+      <c r="J61">
+        <v>6814.14</v>
+      </c>
+      <c r="K61">
+        <v>7143.1</v>
+      </c>
+      <c r="L61">
+        <v>7185.6</v>
+      </c>
+      <c r="M61">
+        <v>6814.14</v>
+      </c>
+      <c r="N61">
+        <v>6857.8</v>
+      </c>
+      <c r="O61">
+        <v>6974.73</v>
+      </c>
+      <c r="P61">
+        <v>6857.8</v>
+      </c>
+      <c r="Q61">
+        <v>6814.14</v>
+      </c>
+      <c r="R61">
+        <v>7125.42</v>
+      </c>
+      <c r="S61">
+        <v>7190.12</v>
+      </c>
+      <c r="T61">
+        <v>7350.76</v>
+      </c>
+      <c r="U61">
+        <v>6975.91</v>
+      </c>
+      <c r="V61">
+        <v>7336</v>
+      </c>
+      <c r="W61">
+        <v>6814.14</v>
+      </c>
+      <c r="X61">
+        <v>6991.15</v>
+      </c>
+      <c r="Y61">
+        <v>7219.41</v>
+      </c>
+      <c r="Z61">
+        <v>6991.15</v>
+      </c>
+      <c r="AA61">
+        <v>7065.58</v>
+      </c>
+      <c r="AB61">
+        <v>6857.8</v>
+      </c>
+      <c r="AC61">
+        <v>6814.14</v>
+      </c>
+      <c r="AD61">
+        <v>7087.19</v>
+      </c>
+      <c r="AF61">
+        <f t="shared" si="0"/>
+        <v>7033.1236666666673</v>
+      </c>
+      <c r="AG61">
+        <f t="shared" si="1"/>
+        <v>6814.14</v>
+      </c>
+      <c r="AH61">
+        <f t="shared" si="2"/>
+        <v>167.32519416759149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>6814.14</v>
+      </c>
+      <c r="B62">
+        <v>6953.89</v>
+      </c>
+      <c r="C62">
+        <v>7135.76</v>
+      </c>
+      <c r="D62">
+        <v>7087.19</v>
+      </c>
+      <c r="E62">
+        <v>6925.07</v>
+      </c>
+      <c r="F62">
+        <v>7065.58</v>
+      </c>
+      <c r="G62">
+        <v>6974.73</v>
+      </c>
+      <c r="H62">
+        <v>7073.6</v>
+      </c>
+      <c r="I62">
+        <v>6814.14</v>
+      </c>
+      <c r="J62">
+        <v>6814.14</v>
+      </c>
+      <c r="K62">
+        <v>6985.9</v>
+      </c>
+      <c r="L62">
+        <v>7014.78</v>
+      </c>
+      <c r="M62">
+        <v>6814.14</v>
+      </c>
+      <c r="N62">
+        <v>6857.8</v>
+      </c>
+      <c r="O62">
+        <v>6974.73</v>
+      </c>
+      <c r="P62">
+        <v>6857.8</v>
+      </c>
+      <c r="Q62">
+        <v>6814.14</v>
+      </c>
+      <c r="R62">
+        <v>7022.71</v>
+      </c>
+      <c r="S62">
+        <v>7021.58</v>
+      </c>
+      <c r="T62">
+        <v>7014.78</v>
+      </c>
+      <c r="U62">
+        <v>6975.91</v>
+      </c>
+      <c r="V62">
+        <v>7167.44</v>
+      </c>
+      <c r="W62">
+        <v>6814.14</v>
+      </c>
+      <c r="X62">
+        <v>6991.15</v>
+      </c>
+      <c r="Y62">
+        <v>7151.67</v>
+      </c>
+      <c r="Z62">
+        <v>6814.14</v>
+      </c>
+      <c r="AA62">
+        <v>7065.58</v>
+      </c>
+      <c r="AB62">
+        <v>6857.8</v>
+      </c>
+      <c r="AC62">
+        <v>6814.14</v>
+      </c>
+      <c r="AD62">
+        <v>6925.07</v>
+      </c>
+      <c r="AF62">
+        <f t="shared" si="0"/>
+        <v>6953.7880000000014</v>
+      </c>
+      <c r="AG62">
+        <f t="shared" si="1"/>
+        <v>6814.14</v>
+      </c>
+      <c r="AH62">
+        <f t="shared" si="2"/>
+        <v>112.68642377263834</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>6814.14</v>
+      </c>
+      <c r="B63">
+        <v>6857.8</v>
+      </c>
+      <c r="C63">
+        <v>7095.35</v>
+      </c>
+      <c r="D63">
+        <v>6992.48</v>
+      </c>
+      <c r="E63">
+        <v>6925.07</v>
+      </c>
+      <c r="F63">
+        <v>7065.58</v>
+      </c>
+      <c r="G63">
+        <v>6974.73</v>
+      </c>
+      <c r="H63">
+        <v>6974.73</v>
+      </c>
+      <c r="I63">
+        <v>6814.14</v>
+      </c>
+      <c r="J63">
+        <v>6814.14</v>
+      </c>
+      <c r="K63">
+        <v>6925.07</v>
+      </c>
+      <c r="L63">
+        <v>6953.89</v>
+      </c>
+      <c r="M63">
+        <v>6814.14</v>
+      </c>
+      <c r="N63">
+        <v>6857.8</v>
+      </c>
+      <c r="O63">
+        <v>6974.73</v>
+      </c>
+      <c r="P63">
+        <v>6814.14</v>
+      </c>
+      <c r="Q63">
+        <v>6814.14</v>
+      </c>
+      <c r="R63">
+        <v>6975.91</v>
+      </c>
+      <c r="S63">
+        <v>7021.58</v>
+      </c>
+      <c r="T63">
+        <v>7014.78</v>
+      </c>
+      <c r="U63">
+        <v>6975.91</v>
+      </c>
+      <c r="V63">
+        <v>7022.71</v>
+      </c>
+      <c r="W63">
+        <v>6814.14</v>
+      </c>
+      <c r="X63">
+        <v>6814.14</v>
+      </c>
+      <c r="Y63">
+        <v>7014.78</v>
+      </c>
+      <c r="Z63">
+        <v>6814.14</v>
+      </c>
+      <c r="AA63">
+        <v>6974.73</v>
+      </c>
+      <c r="AB63">
+        <v>6814.14</v>
+      </c>
+      <c r="AC63">
+        <v>6814.14</v>
+      </c>
+      <c r="AD63">
+        <v>6925.07</v>
+      </c>
+      <c r="AF63">
+        <f t="shared" si="0"/>
+        <v>6915.941333333335</v>
+      </c>
+      <c r="AG63">
+        <f t="shared" si="1"/>
+        <v>6814.14</v>
+      </c>
+      <c r="AH63">
+        <f t="shared" si="2"/>
+        <v>90.554048970152905</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>6814.14</v>
+      </c>
+      <c r="B64">
+        <v>6857.8</v>
+      </c>
+      <c r="C64">
+        <v>7074.46</v>
+      </c>
+      <c r="D64">
+        <v>6814.14</v>
+      </c>
+      <c r="E64">
+        <v>6925.07</v>
+      </c>
+      <c r="F64">
+        <v>6857.8</v>
+      </c>
+      <c r="G64">
+        <v>6814.14</v>
+      </c>
+      <c r="H64">
+        <v>6974.73</v>
+      </c>
+      <c r="I64">
+        <v>6814.14</v>
+      </c>
+      <c r="J64">
+        <v>6814.14</v>
+      </c>
+      <c r="K64">
+        <v>6925.07</v>
+      </c>
+      <c r="L64">
+        <v>6857.8</v>
+      </c>
+      <c r="M64">
+        <v>6814.14</v>
+      </c>
+      <c r="N64">
+        <v>6814.14</v>
+      </c>
+      <c r="O64">
+        <v>6974.73</v>
+      </c>
+      <c r="P64">
+        <v>6814.14</v>
+      </c>
+      <c r="Q64">
+        <v>6814.14</v>
+      </c>
+      <c r="R64">
+        <v>6975.91</v>
+      </c>
+      <c r="S64">
+        <v>6857.8</v>
+      </c>
+      <c r="T64">
+        <v>7014.78</v>
+      </c>
+      <c r="U64">
+        <v>6975.91</v>
+      </c>
+      <c r="V64">
+        <v>6975.91</v>
+      </c>
+      <c r="W64">
+        <v>6814.14</v>
+      </c>
+      <c r="X64">
+        <v>6814.14</v>
+      </c>
+      <c r="Y64">
+        <v>7014.78</v>
+      </c>
+      <c r="Z64">
+        <v>6814.14</v>
+      </c>
+      <c r="AA64">
+        <v>6857.8</v>
+      </c>
+      <c r="AB64">
+        <v>6814.14</v>
+      </c>
+      <c r="AC64">
+        <v>6814.14</v>
+      </c>
+      <c r="AD64">
+        <v>6925.07</v>
+      </c>
+      <c r="AF64">
+        <f t="shared" si="0"/>
+        <v>6881.4460000000026</v>
+      </c>
+      <c r="AG64">
+        <f t="shared" si="1"/>
+        <v>6814.14</v>
+      </c>
+      <c r="AH64">
+        <f t="shared" si="2"/>
+        <v>79.353777503027317</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>6814.14</v>
+      </c>
+      <c r="B65">
+        <v>6814.14</v>
+      </c>
+      <c r="C65">
+        <v>6975.91</v>
+      </c>
+      <c r="D65">
+        <v>6814.14</v>
+      </c>
+      <c r="E65">
+        <v>6914.27</v>
+      </c>
+      <c r="F65">
+        <v>6857.8</v>
+      </c>
+      <c r="G65">
+        <v>6814.14</v>
+      </c>
+      <c r="H65">
+        <v>6974.73</v>
+      </c>
+      <c r="I65">
+        <v>6814.14</v>
+      </c>
+      <c r="J65">
+        <v>6814.14</v>
+      </c>
+      <c r="K65">
+        <v>6814.14</v>
+      </c>
+      <c r="L65">
+        <v>6857.8</v>
+      </c>
+      <c r="M65">
+        <v>6814.14</v>
+      </c>
+      <c r="N65">
+        <v>6814.14</v>
+      </c>
+      <c r="O65">
+        <v>6814.14</v>
+      </c>
+      <c r="P65">
+        <v>6814.14</v>
+      </c>
+      <c r="Q65">
+        <v>6814.14</v>
+      </c>
+      <c r="R65">
+        <v>6814.14</v>
+      </c>
+      <c r="S65">
+        <v>6814.14</v>
+      </c>
+      <c r="T65">
+        <v>6950.86</v>
+      </c>
+      <c r="U65">
+        <v>6814.14</v>
+      </c>
+      <c r="V65">
+        <v>6975.91</v>
+      </c>
+      <c r="W65">
+        <v>6814.14</v>
+      </c>
+      <c r="X65">
+        <v>6814.14</v>
+      </c>
+      <c r="Y65">
+        <v>7014.78</v>
+      </c>
+      <c r="Z65">
+        <v>6814.14</v>
+      </c>
+      <c r="AA65">
+        <v>6814.14</v>
+      </c>
+      <c r="AB65">
+        <v>6814.14</v>
+      </c>
+      <c r="AC65">
+        <v>6814.14</v>
+      </c>
+      <c r="AD65">
+        <v>6914.27</v>
+      </c>
+      <c r="AF65">
+        <f t="shared" si="0"/>
+        <v>6851.1090000000022</v>
+      </c>
+      <c r="AG65">
+        <f t="shared" si="1"/>
+        <v>6814.14</v>
+      </c>
+      <c r="AH65">
+        <f t="shared" si="2"/>
+        <v>63.229792047209123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>6814.14</v>
+      </c>
+      <c r="B66">
+        <v>6814.14</v>
+      </c>
+      <c r="C66">
+        <v>6975.91</v>
+      </c>
+      <c r="D66">
+        <v>6814.14</v>
+      </c>
+      <c r="E66">
+        <v>6814.14</v>
+      </c>
+      <c r="F66">
+        <v>6857.8</v>
+      </c>
+      <c r="G66">
+        <v>6814.14</v>
+      </c>
+      <c r="H66">
+        <v>6967.07</v>
+      </c>
+      <c r="I66">
+        <v>6814.14</v>
+      </c>
+      <c r="J66">
+        <v>6814.14</v>
+      </c>
+      <c r="K66">
+        <v>6814.14</v>
+      </c>
+      <c r="L66">
+        <v>6857.8</v>
+      </c>
+      <c r="M66">
+        <v>6814.14</v>
+      </c>
+      <c r="N66">
+        <v>6814.14</v>
+      </c>
+      <c r="O66">
+        <v>6814.14</v>
+      </c>
+      <c r="P66">
+        <v>6814.14</v>
+      </c>
+      <c r="Q66">
+        <v>6814.14</v>
+      </c>
+      <c r="R66">
+        <v>6814.14</v>
+      </c>
+      <c r="S66">
+        <v>6814.14</v>
+      </c>
+      <c r="T66">
+        <v>6857.8</v>
+      </c>
+      <c r="U66">
+        <v>6814.14</v>
+      </c>
+      <c r="V66">
+        <v>6975.91</v>
+      </c>
+      <c r="W66">
+        <v>6814.14</v>
+      </c>
+      <c r="X66">
+        <v>6814.14</v>
+      </c>
+      <c r="Y66">
+        <v>6974.73</v>
+      </c>
+      <c r="Z66">
+        <v>6814.14</v>
+      </c>
+      <c r="AA66">
+        <v>6814.14</v>
+      </c>
+      <c r="AB66">
+        <v>6814.14</v>
+      </c>
+      <c r="AC66">
+        <v>6814.14</v>
+      </c>
+      <c r="AD66">
+        <v>6814.14</v>
+      </c>
+      <c r="AF66">
+        <f t="shared" si="0"/>
+        <v>6839.7413333333379</v>
+      </c>
+      <c r="AG66">
+        <f t="shared" si="1"/>
+        <v>6814.14</v>
+      </c>
+      <c r="AH66">
+        <f t="shared" si="2"/>
+        <v>54.028244942395972</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>6814.14</v>
+      </c>
+      <c r="B67">
+        <v>6814.14</v>
+      </c>
+      <c r="C67">
+        <v>6814.14</v>
+      </c>
+      <c r="D67">
+        <v>6814.14</v>
+      </c>
+      <c r="E67">
+        <v>6814.14</v>
+      </c>
+      <c r="F67">
+        <v>6814.14</v>
+      </c>
+      <c r="G67">
+        <v>6814.14</v>
+      </c>
+      <c r="H67">
+        <v>6925.07</v>
+      </c>
+      <c r="I67">
+        <v>6814.14</v>
+      </c>
+      <c r="J67">
+        <v>6814.14</v>
+      </c>
+      <c r="K67">
+        <v>6814.14</v>
+      </c>
+      <c r="L67">
+        <v>6814.14</v>
+      </c>
+      <c r="M67">
+        <v>6814.14</v>
+      </c>
+      <c r="N67">
+        <v>6814.14</v>
+      </c>
+      <c r="O67">
+        <v>6814.14</v>
+      </c>
+      <c r="P67">
+        <v>6814.14</v>
+      </c>
+      <c r="Q67">
+        <v>6814.14</v>
+      </c>
+      <c r="R67">
+        <v>6814.14</v>
+      </c>
+      <c r="S67">
+        <v>6814.14</v>
+      </c>
+      <c r="T67">
+        <v>6857.8</v>
+      </c>
+      <c r="U67">
+        <v>6814.14</v>
+      </c>
+      <c r="V67">
+        <v>6914.27</v>
+      </c>
+      <c r="W67">
+        <v>6814.14</v>
+      </c>
+      <c r="X67">
+        <v>6814.14</v>
+      </c>
+      <c r="Y67">
+        <v>6956.72</v>
+      </c>
+      <c r="Z67">
+        <v>6814.14</v>
+      </c>
+      <c r="AA67">
+        <v>6814.14</v>
+      </c>
+      <c r="AB67">
+        <v>6814.14</v>
+      </c>
+      <c r="AC67">
+        <v>6814.14</v>
+      </c>
+      <c r="AD67">
+        <v>6814.14</v>
+      </c>
+      <c r="AF67">
+        <f t="shared" ref="AF67:AF69" si="3">AVERAGE(A67:AD67)</f>
+        <v>6827.3833333333359</v>
+      </c>
+      <c r="AG67">
+        <f t="shared" ref="AG67:AG69" si="4">MIN(A67:AD67)</f>
+        <v>6814.14</v>
+      </c>
+      <c r="AH67">
+        <f t="shared" ref="AH67:AH69" si="5">_xlfn.STDEV.P(A67:AD67)</f>
+        <v>36.196296986785143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>6814.14</v>
+      </c>
+      <c r="B68">
+        <v>6814.14</v>
+      </c>
+      <c r="C68">
+        <v>6814.14</v>
+      </c>
+      <c r="D68">
+        <v>6814.14</v>
+      </c>
+      <c r="E68">
+        <v>6814.14</v>
+      </c>
+      <c r="F68">
+        <v>6814.14</v>
+      </c>
+      <c r="G68">
+        <v>6814.14</v>
+      </c>
+      <c r="H68">
+        <v>6814.14</v>
+      </c>
+      <c r="I68">
+        <v>6814.14</v>
+      </c>
+      <c r="J68">
+        <v>6814.14</v>
+      </c>
+      <c r="K68">
+        <v>6814.14</v>
+      </c>
+      <c r="L68">
+        <v>6814.14</v>
+      </c>
+      <c r="M68">
+        <v>6814.14</v>
+      </c>
+      <c r="N68">
+        <v>6814.14</v>
+      </c>
+      <c r="O68">
+        <v>6814.14</v>
+      </c>
+      <c r="P68">
+        <v>6814.14</v>
+      </c>
+      <c r="Q68">
+        <v>6814.14</v>
+      </c>
+      <c r="R68">
+        <v>6814.14</v>
+      </c>
+      <c r="S68">
+        <v>6814.14</v>
+      </c>
+      <c r="T68">
+        <v>6857.8</v>
+      </c>
+      <c r="U68">
+        <v>6814.14</v>
+      </c>
+      <c r="V68">
+        <v>6814.14</v>
+      </c>
+      <c r="W68">
+        <v>6814.14</v>
+      </c>
+      <c r="X68">
+        <v>6814.14</v>
+      </c>
+      <c r="Y68">
+        <v>6814.14</v>
+      </c>
+      <c r="Z68">
+        <v>6814.14</v>
+      </c>
+      <c r="AA68">
+        <v>6814.14</v>
+      </c>
+      <c r="AB68">
+        <v>6814.14</v>
+      </c>
+      <c r="AC68">
+        <v>6814.14</v>
+      </c>
+      <c r="AD68">
+        <v>6814.14</v>
+      </c>
+      <c r="AF68">
+        <f t="shared" si="3"/>
+        <v>6815.5953333333373</v>
+      </c>
+      <c r="AG68">
+        <f t="shared" si="4"/>
+        <v>6814.14</v>
+      </c>
+      <c r="AH68">
+        <f t="shared" si="5"/>
+        <v>7.8372098493163884</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>6814.14</v>
+      </c>
+      <c r="B69">
+        <v>6814.14</v>
+      </c>
+      <c r="C69">
+        <v>6814.14</v>
+      </c>
+      <c r="D69">
+        <v>6814.14</v>
+      </c>
+      <c r="E69">
+        <v>6814.14</v>
+      </c>
+      <c r="F69">
+        <v>6814.14</v>
+      </c>
+      <c r="G69">
+        <v>6814.14</v>
+      </c>
+      <c r="H69">
+        <v>6814.14</v>
+      </c>
+      <c r="I69">
+        <v>6814.14</v>
+      </c>
+      <c r="J69">
+        <v>6814.14</v>
+      </c>
+      <c r="K69">
+        <v>6814.14</v>
+      </c>
+      <c r="L69">
+        <v>6814.14</v>
+      </c>
+      <c r="M69">
+        <v>6814.14</v>
+      </c>
+      <c r="N69">
+        <v>6814.14</v>
+      </c>
+      <c r="O69">
+        <v>6814.14</v>
+      </c>
+      <c r="P69">
+        <v>6814.14</v>
+      </c>
+      <c r="Q69">
+        <v>6814.14</v>
+      </c>
+      <c r="R69">
+        <v>6814.14</v>
+      </c>
+      <c r="S69">
+        <v>6814.14</v>
+      </c>
+      <c r="T69">
+        <v>6814.14</v>
+      </c>
+      <c r="U69">
+        <v>6814.14</v>
+      </c>
+      <c r="V69">
+        <v>6814.14</v>
+      </c>
+      <c r="W69">
+        <v>6814.14</v>
+      </c>
+      <c r="X69">
+        <v>6814.14</v>
+      </c>
+      <c r="Y69">
+        <v>6814.14</v>
+      </c>
+      <c r="Z69">
+        <v>6814.14</v>
+      </c>
+      <c r="AA69">
+        <v>6814.14</v>
+      </c>
+      <c r="AB69">
+        <v>6814.14</v>
+      </c>
+      <c r="AC69">
+        <v>6814.14</v>
+      </c>
+      <c r="AD69">
+        <v>6814.14</v>
+      </c>
+      <c r="AF69">
+        <f t="shared" si="3"/>
+        <v>6814.1400000000049</v>
+      </c>
+      <c r="AG69">
+        <f t="shared" si="4"/>
+        <v>6814.14</v>
+      </c>
+      <c r="AH69">
+        <f t="shared" si="5"/>
         <v>4.5474735088646412E-12</v>
       </c>
     </row>
